--- a/DurhamRegion_R_Value.xlsx
+++ b/DurhamRegion_R_Value.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191FEAF-4461-F449-BB9C-B897610AE320}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E0753-F1F7-6C42-8F71-B4E265F796FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{938B302A-C5EF-084E-BCBA-50032E908D45}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{938B302A-C5EF-084E-BCBA-50032E908D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80480AE-CD93-E445-AA9C-7B20334DF8BD}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M26:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,478 +423,478 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44298</v>
+        <f t="shared" ref="A2:A7" si="0">(A3+1)</f>
+        <v>44305</v>
       </c>
       <c r="B2">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="D2">
-        <v>1.1299999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>(A2-1)</f>
-        <v>44297</v>
+        <f t="shared" si="0"/>
+        <v>44304</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="C3">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="D3">
-        <v>1.1299999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A44" si="0">(A3-1)</f>
-        <v>44296</v>
+        <f t="shared" si="0"/>
+        <v>44303</v>
       </c>
       <c r="B4">
-        <v>0.94</v>
+        <v>0.79</v>
       </c>
       <c r="C4">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="D4">
-        <v>1.1299999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="B5">
-        <v>0.95</v>
+        <v>0.81</v>
       </c>
       <c r="C5">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="D5">
-        <v>1.1299999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="B6">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="C6">
-        <v>1.32</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D6">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="B7">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="C7">
-        <v>1.3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D7">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>44292</v>
+        <f>(A9+1)</f>
+        <v>44299</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="C8">
-        <v>1.29</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D8">
-        <v>1.1399999999999999</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B9">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="C9">
-        <v>1.27</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D9">
-        <v>1.1399999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>44290</v>
+        <f>(A9-1)</f>
+        <v>44297</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="C10">
-        <v>1.26</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D10">
-        <v>1.1399999999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>44289</v>
+        <f t="shared" ref="A11:A51" si="1">(A10-1)</f>
+        <v>44296</v>
       </c>
       <c r="B11">
+        <v>0.94</v>
+      </c>
+      <c r="C11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D11">
         <v>1.04</v>
-      </c>
-      <c r="C11">
-        <v>1.25</v>
-      </c>
-      <c r="D11">
-        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>44288</v>
+        <f t="shared" si="1"/>
+        <v>44295</v>
       </c>
       <c r="B12">
+        <v>0.96</v>
+      </c>
+      <c r="C12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D12">
         <v>1.05</v>
-      </c>
-      <c r="C12">
-        <v>1.24</v>
-      </c>
-      <c r="D12">
-        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>44287</v>
+        <f t="shared" si="1"/>
+        <v>44294</v>
       </c>
       <c r="B13">
+        <v>0.98</v>
+      </c>
+      <c r="C13">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D13">
         <v>1.06</v>
-      </c>
-      <c r="C13">
-        <v>1.23</v>
-      </c>
-      <c r="D13">
-        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>44286</v>
+        <f t="shared" si="1"/>
+        <v>44293</v>
       </c>
       <c r="B14">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D14">
-        <v>1.1499999999999999</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>44285</v>
+        <f t="shared" si="1"/>
+        <v>44292</v>
       </c>
       <c r="B15">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="C15">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D15">
-        <v>1.1599999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>44284</v>
+        <f t="shared" si="1"/>
+        <v>44291</v>
       </c>
       <c r="B16">
-        <v>1.0900000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="C16">
-        <v>1.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D16">
-        <v>1.1599999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>44283</v>
+        <f t="shared" si="1"/>
+        <v>44290</v>
       </c>
       <c r="B17">
+        <v>1.04</v>
+      </c>
+      <c r="C17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D17">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.23</v>
-      </c>
-      <c r="D17">
-        <v>1.17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>44282</v>
+        <f t="shared" si="1"/>
+        <v>44289</v>
       </c>
       <c r="B18">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.23</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D18">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>44281</v>
+        <f t="shared" si="1"/>
+        <v>44288</v>
       </c>
       <c r="B19">
-        <v>1.1200000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="C19">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="D19">
-        <v>1.18</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>44280</v>
+        <f t="shared" si="1"/>
+        <v>44287</v>
       </c>
       <c r="B20">
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="C20">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="D20">
-        <v>1.19</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>44279</v>
+        <f t="shared" si="1"/>
+        <v>44286</v>
       </c>
       <c r="B21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.18</v>
+      </c>
+      <c r="D21">
         <v>1.1299999999999999</v>
-      </c>
-      <c r="C21">
-        <v>1.25</v>
-      </c>
-      <c r="D21">
-        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>44278</v>
+        <f t="shared" si="1"/>
+        <v>44285</v>
       </c>
       <c r="B22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1.19</v>
+      </c>
+      <c r="D22">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="C22">
-        <v>1.26</v>
-      </c>
-      <c r="D22">
-        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>44277</v>
+        <f t="shared" si="1"/>
+        <v>44284</v>
       </c>
       <c r="B23">
-        <v>1.1599999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C23">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="D23">
-        <v>1.21</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>44276</v>
+        <f t="shared" si="1"/>
+        <v>44283</v>
       </c>
       <c r="B24">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C24">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="D24">
-        <v>1.22</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>44275</v>
+        <f t="shared" si="1"/>
+        <v>44282</v>
       </c>
       <c r="B25">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C25">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="D25">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>44274</v>
+        <f t="shared" si="1"/>
+        <v>44281</v>
       </c>
       <c r="B26">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C26">
+        <v>1.23</v>
+      </c>
+      <c r="D26">
         <v>1.18</v>
-      </c>
-      <c r="C26">
-        <v>1.29</v>
-      </c>
-      <c r="D26">
-        <v>1.23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>44273</v>
+        <f t="shared" si="1"/>
+        <v>44280</v>
       </c>
       <c r="B27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.24</v>
+      </c>
+      <c r="D27">
         <v>1.19</v>
-      </c>
-      <c r="C27">
-        <v>1.3</v>
-      </c>
-      <c r="D27">
-        <v>1.24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>44272</v>
+        <f t="shared" si="1"/>
+        <v>44279</v>
       </c>
       <c r="B28">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C28">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="D28">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>44271</v>
+        <f t="shared" si="1"/>
+        <v>44278</v>
       </c>
       <c r="B29">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C29">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="D29">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>44270</v>
+        <f t="shared" si="1"/>
+        <v>44277</v>
       </c>
       <c r="B30">
-        <v>1.19</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C30">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="D30">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f>(A30-1)</f>
-        <v>44269</v>
+        <f t="shared" si="1"/>
+        <v>44276</v>
       </c>
       <c r="B31">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="C31">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="D31">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>44268</v>
+        <f t="shared" si="1"/>
+        <v>44275</v>
       </c>
       <c r="B32">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="C32">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="D32">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44274</v>
       </c>
       <c r="B33">
         <v>1.18</v>
       </c>
       <c r="C33">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="D33">
         <v>1.23</v>
@@ -902,166 +902,271 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>44266</v>
+        <f t="shared" si="1"/>
+        <v>44273</v>
       </c>
       <c r="B34">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="C34">
         <v>1.3</v>
       </c>
       <c r="D34">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>44265</v>
+        <f t="shared" si="1"/>
+        <v>44272</v>
       </c>
       <c r="B35">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="C35">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="D35">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f>(A35-1)</f>
-        <v>44264</v>
+        <f t="shared" si="1"/>
+        <v>44271</v>
       </c>
       <c r="B36">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C36">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="D36">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>44263</v>
+        <f t="shared" si="1"/>
+        <v>44270</v>
       </c>
       <c r="B37">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C37">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="D37">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>44262</v>
+        <f>(A37-1)</f>
+        <v>44269</v>
       </c>
       <c r="B38">
-        <v>1.1499999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C38">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="D38">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>44261</v>
+        <f t="shared" si="1"/>
+        <v>44268</v>
       </c>
       <c r="B39">
-        <v>1.1299999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C39">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="D39">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>44260</v>
+        <f t="shared" si="1"/>
+        <v>44267</v>
       </c>
       <c r="B40">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="C40">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="D40">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>44259</v>
+        <f t="shared" si="1"/>
+        <v>44266</v>
       </c>
       <c r="B41">
-        <v>1.1000000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="C41">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D41">
-        <v>1.1599999999999999</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>44258</v>
+        <f t="shared" si="1"/>
+        <v>44265</v>
       </c>
       <c r="B42">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="C42">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="D42">
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>(A42-1)</f>
-        <v>44257</v>
+        <v>44264</v>
       </c>
       <c r="B43">
-        <v>1.07</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C43">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="D43">
-        <v>1.1299999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>44263</v>
+      </c>
+      <c r="B44">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C44">
+        <v>1.26</v>
+      </c>
+      <c r="D44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44262</v>
+      </c>
+      <c r="B45">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C45">
+        <v>1.25</v>
+      </c>
+      <c r="D45">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>44261</v>
+      </c>
+      <c r="B46">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C46">
+        <v>1.23</v>
+      </c>
+      <c r="D46">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>44260</v>
+      </c>
+      <c r="B47">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C47">
+        <v>1.22</v>
+      </c>
+      <c r="D47">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>44259</v>
+      </c>
+      <c r="B48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48">
+        <v>1.2</v>
+      </c>
+      <c r="D48">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>44258</v>
+      </c>
+      <c r="B49">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C49">
+        <v>1.19</v>
+      </c>
+      <c r="D49">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f>(A49-1)</f>
+        <v>44257</v>
+      </c>
+      <c r="B50">
+        <v>1.07</v>
+      </c>
+      <c r="C50">
+        <v>1.18</v>
+      </c>
+      <c r="D50">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
         <v>44256</v>
       </c>
-      <c r="B44">
+      <c r="B51">
         <v>1.06</v>
       </c>
-      <c r="C44">
+      <c r="C51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D44">
+      <c r="D51">
         <v>1.1200000000000001</v>
       </c>
     </row>

--- a/DurhamRegion_R_Value.xlsx
+++ b/DurhamRegion_R_Value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E0753-F1F7-6C42-8F71-B4E265F796FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE210F67-5BB6-2C4E-8A79-72AB7057B983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{938B302A-C5EF-084E-BCBA-50032E908D45}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{938B302A-C5EF-084E-BCBA-50032E908D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80480AE-CD93-E445-AA9C-7B20334DF8BD}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M26:M27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,583 +423,583 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A7" si="0">(A3+1)</f>
-        <v>44305</v>
+        <f t="shared" ref="A2:A8" si="0">(A3+1)</f>
+        <v>44312</v>
       </c>
       <c r="B2">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C2">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="D2">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="B3">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="C3">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="D3">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44310</v>
       </c>
       <c r="B4">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="C4">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="D4">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="B5">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
       <c r="C5">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="B6">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
       <c r="C6">
-        <v>1.1599999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="B7">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="C7">
-        <v>1.1599999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>(A9+1)</f>
-        <v>44299</v>
+        <f t="shared" si="0"/>
+        <v>44306</v>
       </c>
       <c r="B8">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="C8">
-        <v>1.1499999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D8">
-        <v>1.01</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44298</v>
+        <f t="shared" ref="A9:A14" si="1">(A10+1)</f>
+        <v>44305</v>
       </c>
       <c r="B9">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>1.1399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="D9">
-        <v>1.02</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>(A9-1)</f>
-        <v>44297</v>
+        <f t="shared" si="1"/>
+        <v>44304</v>
       </c>
       <c r="B10">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="C10">
-        <v>1.1299999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="D10">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" ref="A11:A51" si="1">(A10-1)</f>
-        <v>44296</v>
+        <f t="shared" si="1"/>
+        <v>44303</v>
       </c>
       <c r="B11">
-        <v>0.94</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="B12">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="C12">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="B13">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="C13">
-        <v>1.1299999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="D13">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="C14">
-        <v>1.1399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="D14">
-        <v>1.06</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>44292</v>
+        <f>(A16+1)</f>
+        <v>44299</v>
       </c>
       <c r="B15">
+        <v>0.89</v>
+      </c>
+      <c r="C15">
         <v>1.01</v>
       </c>
-      <c r="C15">
-        <v>1.1399999999999999</v>
-      </c>
       <c r="D15">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B16">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="C16">
-        <v>1.1499999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D16">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>44290</v>
+        <f>(A16-1)</f>
+        <v>44297</v>
       </c>
       <c r="B17">
+        <v>0.93</v>
+      </c>
+      <c r="C17">
         <v>1.04</v>
       </c>
-      <c r="C17">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="D17">
-        <v>1.1000000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>44289</v>
+        <f t="shared" ref="A18:A58" si="2">(A17-1)</f>
+        <v>44296</v>
       </c>
       <c r="B18">
+        <v>0.94</v>
+      </c>
+      <c r="C18">
         <v>1.05</v>
       </c>
-      <c r="C18">
-        <v>1.1599999999999999</v>
-      </c>
       <c r="D18">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>44288</v>
+        <f t="shared" si="2"/>
+        <v>44295</v>
       </c>
       <c r="B19">
+        <v>0.96</v>
+      </c>
+      <c r="C19">
         <v>1.06</v>
       </c>
-      <c r="C19">
-        <v>1.17</v>
-      </c>
       <c r="D19">
-        <v>1.1100000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>44287</v>
+        <f t="shared" si="2"/>
+        <v>44294</v>
       </c>
       <c r="B20">
+        <v>0.98</v>
+      </c>
+      <c r="C20">
         <v>1.08</v>
       </c>
-      <c r="C20">
-        <v>1.18</v>
-      </c>
       <c r="D20">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>44286</v>
+        <f t="shared" si="2"/>
+        <v>44293</v>
       </c>
       <c r="B21">
-        <v>1.0900000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="C21">
-        <v>1.18</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21">
-        <v>1.1299999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>44285</v>
+        <f t="shared" si="2"/>
+        <v>44292</v>
       </c>
       <c r="B22">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="C22">
-        <v>1.19</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D22">
-        <v>1.1399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>44284</v>
+        <f t="shared" si="2"/>
+        <v>44291</v>
       </c>
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.2</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D23">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>44283</v>
+        <f t="shared" si="2"/>
+        <v>44290</v>
       </c>
       <c r="B24">
-        <v>1.1100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="C24">
-        <v>1.21</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D24">
-        <v>1.1599999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>44282</v>
+        <f t="shared" si="2"/>
+        <v>44289</v>
       </c>
       <c r="B25">
-        <v>1.1200000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.23</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D25">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>44281</v>
+        <f t="shared" si="2"/>
+        <v>44288</v>
       </c>
       <c r="B26">
-        <v>1.1299999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C26">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="D26">
-        <v>1.18</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>44280</v>
+        <f t="shared" si="2"/>
+        <v>44287</v>
       </c>
       <c r="B27">
+        <v>1.08</v>
+      </c>
+      <c r="C27">
+        <v>1.18</v>
+      </c>
+      <c r="D27">
         <v>1.1299999999999999</v>
-      </c>
-      <c r="C27">
-        <v>1.24</v>
-      </c>
-      <c r="D27">
-        <v>1.19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
-        <v>44279</v>
+        <f t="shared" si="2"/>
+        <v>44286</v>
       </c>
       <c r="B28">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C28">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="D28">
-        <v>1.2</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
-        <v>44278</v>
+        <f t="shared" si="2"/>
+        <v>44285</v>
       </c>
       <c r="B29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C29">
+        <v>1.19</v>
+      </c>
+      <c r="D29">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="C29">
-        <v>1.26</v>
-      </c>
-      <c r="D29">
-        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
-        <v>44277</v>
+        <f t="shared" si="2"/>
+        <v>44284</v>
       </c>
       <c r="B30">
-        <v>1.1599999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C30">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="D30">
-        <v>1.21</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
-        <v>44276</v>
+        <f t="shared" si="2"/>
+        <v>44283</v>
       </c>
       <c r="B31">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C31">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="D31">
-        <v>1.22</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
-        <v>44275</v>
+        <f t="shared" si="2"/>
+        <v>44282</v>
       </c>
       <c r="B32">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C32">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="D32">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f t="shared" si="1"/>
-        <v>44274</v>
+        <f t="shared" si="2"/>
+        <v>44281</v>
       </c>
       <c r="B33">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C33">
+        <v>1.23</v>
+      </c>
+      <c r="D33">
         <v>1.18</v>
-      </c>
-      <c r="C33">
-        <v>1.29</v>
-      </c>
-      <c r="D33">
-        <v>1.23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>44273</v>
+        <f t="shared" si="2"/>
+        <v>44280</v>
       </c>
       <c r="B34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.24</v>
+      </c>
+      <c r="D34">
         <v>1.19</v>
-      </c>
-      <c r="C34">
-        <v>1.3</v>
-      </c>
-      <c r="D34">
-        <v>1.24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="1"/>
-        <v>44272</v>
+        <f t="shared" si="2"/>
+        <v>44279</v>
       </c>
       <c r="B35">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C35">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="D35">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" si="1"/>
-        <v>44271</v>
+        <f t="shared" si="2"/>
+        <v>44278</v>
       </c>
       <c r="B36">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C36">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="D36">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="1"/>
-        <v>44270</v>
+        <f t="shared" si="2"/>
+        <v>44277</v>
       </c>
       <c r="B37">
-        <v>1.19</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C37">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="D37">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f>(A37-1)</f>
-        <v>44269</v>
+        <f t="shared" si="2"/>
+        <v>44276</v>
       </c>
       <c r="B38">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="C38">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="D38">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f t="shared" si="1"/>
-        <v>44268</v>
+        <f t="shared" si="2"/>
+        <v>44275</v>
       </c>
       <c r="B39">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="C39">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="D39">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f t="shared" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="2"/>
+        <v>44274</v>
       </c>
       <c r="B40">
         <v>1.18</v>
       </c>
       <c r="C40">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="D40">
         <v>1.23</v>
@@ -1007,166 +1007,271 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f t="shared" si="1"/>
-        <v>44266</v>
+        <f t="shared" si="2"/>
+        <v>44273</v>
       </c>
       <c r="B41">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="C41">
         <v>1.3</v>
       </c>
       <c r="D41">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f t="shared" si="1"/>
-        <v>44265</v>
+        <f t="shared" si="2"/>
+        <v>44272</v>
       </c>
       <c r="B42">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="C42">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="D42">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <f>(A42-1)</f>
-        <v>44264</v>
+        <f t="shared" si="2"/>
+        <v>44271</v>
       </c>
       <c r="B43">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C43">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="D43">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f t="shared" si="1"/>
-        <v>44263</v>
+        <f t="shared" si="2"/>
+        <v>44270</v>
       </c>
       <c r="B44">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C44">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="D44">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f t="shared" si="1"/>
-        <v>44262</v>
+        <f>(A44-1)</f>
+        <v>44269</v>
       </c>
       <c r="B45">
-        <v>1.1499999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C45">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="D45">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f t="shared" si="1"/>
-        <v>44261</v>
+        <f t="shared" si="2"/>
+        <v>44268</v>
       </c>
       <c r="B46">
-        <v>1.1299999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="C46">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="D46">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f t="shared" si="1"/>
-        <v>44260</v>
+        <f t="shared" si="2"/>
+        <v>44267</v>
       </c>
       <c r="B47">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="C47">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="D47">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f t="shared" si="1"/>
-        <v>44259</v>
+        <f t="shared" si="2"/>
+        <v>44266</v>
       </c>
       <c r="B48">
-        <v>1.1000000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="C48">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D48">
-        <v>1.1599999999999999</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f t="shared" si="1"/>
-        <v>44258</v>
+        <f t="shared" si="2"/>
+        <v>44265</v>
       </c>
       <c r="B49">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="C49">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="D49">
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>(A49-1)</f>
-        <v>44257</v>
+        <v>44264</v>
       </c>
       <c r="B50">
-        <v>1.07</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C50">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="D50">
-        <v>1.1299999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>44263</v>
+      </c>
+      <c r="B51">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C51">
+        <v>1.26</v>
+      </c>
+      <c r="D51">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="2"/>
+        <v>44262</v>
+      </c>
+      <c r="B52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C52">
+        <v>1.25</v>
+      </c>
+      <c r="D52">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="2"/>
+        <v>44261</v>
+      </c>
+      <c r="B53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C53">
+        <v>1.23</v>
+      </c>
+      <c r="D53">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="2"/>
+        <v>44260</v>
+      </c>
+      <c r="B54">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C54">
+        <v>1.22</v>
+      </c>
+      <c r="D54">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="2"/>
+        <v>44259</v>
+      </c>
+      <c r="B55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C55">
+        <v>1.2</v>
+      </c>
+      <c r="D55">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="2"/>
+        <v>44258</v>
+      </c>
+      <c r="B56">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C56">
+        <v>1.19</v>
+      </c>
+      <c r="D56">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f>(A56-1)</f>
+        <v>44257</v>
+      </c>
+      <c r="B57">
+        <v>1.07</v>
+      </c>
+      <c r="C57">
+        <v>1.18</v>
+      </c>
+      <c r="D57">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="2"/>
         <v>44256</v>
       </c>
-      <c r="B51">
+      <c r="B58">
         <v>1.06</v>
       </c>
-      <c r="C51">
+      <c r="C58">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D51">
+      <c r="D58">
         <v>1.1200000000000001</v>
       </c>
     </row>
